--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmo\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF7B227-2ADD-49BB-BB35-E0219DBEF5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C3818-B851-45B6-9A48-2B7543C25175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5837E192-74A2-43E6-A295-3450656F88D6}"/>
   </bookViews>
@@ -36,20 +36,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
-    <t>hello</t>
+    <t>name</t>
   </si>
   <si>
-    <t>test</t>
+    <t>image</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>mahmoud</t>
+  </si>
+  <si>
+    <t>16-9-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -77,8 +97,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,28 +439,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CFEEE-4887-48ED-B312-F71DEE840D87}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCE4ECEBB118E34E8F5ABA0D60FA6CC7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef7659f75ef28757ed6365a5e885d005">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ee0760f-5820-4722-a484-79d2bd6eac05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fae03a52ea35ae4f50a87e982fb6cdf7" ns3:_="">
     <xsd:import namespace="6ee0760f-5820-4722-a484-79d2bd6eac05"/>
@@ -622,15 +738,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -640,6 +747,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94001F35-AC73-43AF-B68D-DC73E0F66FA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEACC005-59EC-4413-B14F-654700EFF870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -657,14 +772,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94001F35-AC73-43AF-B68D-DC73E0F66FA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE91FBA-06CE-4A72-BB96-939704E673A4}">
   <ds:schemaRefs>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmo\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C3818-B851-45B6-9A48-2B7543C25175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E686B6D-669E-42BB-BB99-E85D85447CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5837E192-74A2-43E6-A295-3450656F88D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CFEEE-4887-48ED-B312-F71DEE840D87}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,6 +532,146 @@
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmo\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E686B6D-669E-42BB-BB99-E85D85447CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06620142-444D-4A68-80E8-E291353B334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5837E192-74A2-43E6-A295-3450656F88D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CFEEE-4887-48ED-B312-F71DEE840D87}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +451,7 @@
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +464,32 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -478,8 +502,32 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -492,8 +540,32 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -506,8 +578,32 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -520,8 +616,32 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -534,8 +654,32 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -548,8 +692,32 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -562,8 +730,32 @@
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -576,8 +768,32 @@
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -590,8 +806,32 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,8 +844,32 @@
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -618,8 +882,32 @@
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -632,8 +920,32 @@
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>29</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -646,8 +958,32 @@
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -660,8 +996,32 @@
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>29</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -672,6 +1032,1170 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>29</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>29</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>29</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>29</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>29</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>29</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>29</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>29</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>29</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>29</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>29</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>29</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>29</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>29</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>29</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>29</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>29</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>29</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>29</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>29</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>29</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>29</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>29</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>29</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>29</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>29</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>29</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>29</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>29</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>29</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>29</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>29</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>29</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>29</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>29</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>29</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>29</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>29</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>29</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>29</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>29</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>29</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>29</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>29</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>29</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>29</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>29</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>29</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>29</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>29</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>29</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>29</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>29</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>29</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>29</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>29</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>29</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>29</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>29</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -691,6 +2215,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ee0760f-5820-4722-a484-79d2bd6eac05" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCE4ECEBB118E34E8F5ABA0D60FA6CC7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef7659f75ef28757ed6365a5e885d005">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6ee0760f-5820-4722-a484-79d2bd6eac05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fae03a52ea35ae4f50a87e982fb6cdf7" ns3:_="">
     <xsd:import namespace="6ee0760f-5820-4722-a484-79d2bd6eac05"/>
@@ -878,14 +2410,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ee0760f-5820-4722-a484-79d2bd6eac05" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94001F35-AC73-43AF-B68D-DC73E0F66FA1}">
   <ds:schemaRefs>
@@ -895,6 +2419,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE91FBA-06CE-4A72-BB96-939704E673A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6ee0760f-5820-4722-a484-79d2bd6eac05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEACC005-59EC-4413-B14F-654700EFF870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -910,20 +2450,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE91FBA-06CE-4A72-BB96-939704E673A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6ee0760f-5820-4722-a484-79d2bd6eac05"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>